--- a/output/below_50/tRNA-Thr-TGT-4-1.xlsx
+++ b/output/below_50/tRNA-Thr-TGT-4-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="78">
   <si>
     <t>chr14</t>
   </si>
@@ -246,84 +246,6 @@
   </si>
   <si>
     <t>75</t>
-  </si>
-  <si>
-    <t>21099469</t>
-  </si>
-  <si>
-    <t>21099492</t>
-  </si>
-  <si>
-    <t>21099489</t>
-  </si>
-  <si>
-    <t>AGTTTAAGAAATAAATTAAA</t>
-  </si>
-  <si>
-    <t>5% (26)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 5%, Moreno-Mateos: 16%</t>
-  </si>
-  <si>
-    <t>21099627</t>
-  </si>
-  <si>
-    <t>21099650</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>21099630</t>
-  </si>
-  <si>
-    <t>ATAATCCAGAACTTAAAAGT</t>
-  </si>
-  <si>
-    <t>46% (49)</t>
-  </si>
-  <si>
-    <t>46% (43)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 24, Doench 2016: 46%, Moreno-Mateos: 46%</t>
-  </si>
-  <si>
-    <t>14860781010</t>
-  </si>
-  <si>
-    <t>21099639</t>
-  </si>
-  <si>
-    <t>21099662</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>21099659</t>
-  </si>
-  <si>
-    <t>TTCTGGATTATTTGCTTCTT</t>
-  </si>
-  <si>
-    <t>1% (16)</t>
-  </si>
-  <si>
-    <t>12% (24)</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 36, Doench 2016: 1%, Moreno-Mateos: 12%</t>
-  </si>
-  <si>
-    <t>2.87397E+11</t>
   </si>
 </sst>
 </file>
@@ -368,7 +290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -905,183 +827,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>65</v>
-      </c>
-      <c r="R10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" t="s">
-        <v>87</v>
-      </c>
-      <c r="N11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O11" t="s">
-        <v>91</v>
-      </c>
-      <c r="P11" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" t="s">
-        <v>92</v>
-      </c>
-      <c r="S11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" t="s">
-        <v>96</v>
-      </c>
-      <c r="N12" t="s">
-        <v>99</v>
-      </c>
-      <c r="O12" t="s">
-        <v>100</v>
-      </c>
-      <c r="P12" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>101</v>
-      </c>
-      <c r="R12" t="s">
-        <v>102</v>
-      </c>
-      <c r="S12" t="s">
-        <v>103</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
